--- a/CodeVS/data/output/tugboat_schedule_algorithm_ODR_014.xlsx
+++ b/CodeVS/data/output/tugboat_schedule_algorithm_ODR_014.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="588" uniqueCount="161">
   <si>
     <t>ID</t>
   </si>
@@ -115,7 +115,7 @@
     <t>Travel To Carrier</t>
   </si>
   <si>
-    <t>Sea-Sea</t>
+    <t>Sea-Sea Empty Barges</t>
   </si>
   <si>
     <t>Start Order Carrier</t>
@@ -127,7 +127,7 @@
     <t>Appointment</t>
   </si>
   <si>
-    <t>Sea-River</t>
+    <t>Sea-River Load Barges</t>
   </si>
   <si>
     <t>Barge Release</t>
@@ -145,7 +145,7 @@
     <t>Customer Station</t>
   </si>
   <si>
-    <t>River-River</t>
+    <t>River-River Load Barges</t>
   </si>
   <si>
     <t>Loader-Customer</t>
@@ -181,9 +181,6 @@
     <t>ST_001 to ST_005</t>
   </si>
   <si>
-    <t>stop at ST_005</t>
-  </si>
-  <si>
     <t>ST_005 to ST_006</t>
   </si>
   <si>
@@ -283,9 +280,6 @@
     <t>ST_029 to ST_030</t>
   </si>
   <si>
-    <t>stop at ST_030</t>
-  </si>
-  <si>
     <t>ST_030 to ST_031</t>
   </si>
   <si>
@@ -352,9 +346,6 @@
     <t>loading_point</t>
   </si>
   <si>
-    <t>water_level_point</t>
-  </si>
-  <si>
     <t>release_point</t>
   </si>
   <si>
@@ -367,7 +358,7 @@
     <t>B_089</t>
   </si>
   <si>
-    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001D4A2AEBA40&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001D4A2610620&gt;], 'exit_datetime': datetime.datetime(2025, 2, 10, 6, 0)}</t>
+    <t>{'travel_time': 0.0, 'last_location': (13.1885, 100.815), 'speed': 0, 'start_object': &lt;CodeVS.components.carrier.Carrier object at 0x000001B7452C1A00&gt;, 'travel_distance': 0.0, 'travel_steps': [&lt;CodeVS.operations.travel_helper.TravelStep object at 0x000001B743484980&gt;], 'exit_datetime': datetime.datetime(2025, 2, 10, 6, 0)}</t>
   </si>
   <si>
     <t>ST_001</t>
@@ -867,7 +858,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X66"/>
+  <dimension ref="A1:X64"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -979,7 +970,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L2">
         <v>1</v>
@@ -1006,13 +997,13 @@
         <v>28</v>
       </c>
       <c r="V2" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W2" t="s">
         <v>26</v>
       </c>
       <c r="X2" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="3" spans="1:24">
@@ -1047,13 +1038,13 @@
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N3">
         <v>800</v>
@@ -1074,19 +1065,19 @@
         <v>45698.25</v>
       </c>
       <c r="T3" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="U3" t="s">
         <v>28</v>
       </c>
       <c r="V3" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W3" t="s">
         <v>26</v>
       </c>
       <c r="X3" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="4" spans="1:24">
@@ -1121,13 +1112,13 @@
         <v>12</v>
       </c>
       <c r="K4" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N4">
         <v>400</v>
@@ -1148,16 +1139,16 @@
         <v>0</v>
       </c>
       <c r="U4" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V4" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W4" t="s">
         <v>26</v>
       </c>
       <c r="X4" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:24">
@@ -1192,13 +1183,13 @@
         <v>0</v>
       </c>
       <c r="K5" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N5">
         <v>800</v>
@@ -1219,16 +1210,16 @@
         <v>0</v>
       </c>
       <c r="U5" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V5" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W5" t="s">
         <v>26</v>
       </c>
       <c r="X5" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:24">
@@ -1263,13 +1254,13 @@
         <v>0</v>
       </c>
       <c r="K6" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -1290,16 +1281,16 @@
         <v>0</v>
       </c>
       <c r="U6" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V6" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W6" t="s">
         <v>26</v>
       </c>
       <c r="X6" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:24">
@@ -1334,13 +1325,13 @@
         <v>10.19746835443038</v>
       </c>
       <c r="K7" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -1361,16 +1352,16 @@
         <v>0</v>
       </c>
       <c r="U7" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V7" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W7" t="s">
         <v>26</v>
       </c>
       <c r="X7" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="8" spans="1:24">
@@ -1405,13 +1396,13 @@
         <v>0</v>
       </c>
       <c r="K8" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N8">
         <v>4050</v>
@@ -1432,16 +1423,16 @@
         <v>0</v>
       </c>
       <c r="U8" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V8" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W8" t="s">
         <v>26</v>
       </c>
       <c r="X8" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:24">
@@ -1476,13 +1467,13 @@
         <v>250</v>
       </c>
       <c r="K9" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="N9">
         <v>2500</v>
@@ -1503,16 +1494,16 @@
         <v>0</v>
       </c>
       <c r="U9" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V9" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W9" t="s">
         <v>26</v>
       </c>
       <c r="X9" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10" spans="1:24">
@@ -1547,13 +1538,13 @@
         <v>240</v>
       </c>
       <c r="K10" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="N10">
         <v>1550</v>
@@ -1574,16 +1565,16 @@
         <v>0</v>
       </c>
       <c r="U10" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V10" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W10" t="s">
         <v>26</v>
       </c>
       <c r="X10" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="11" spans="1:24">
@@ -1618,13 +1609,13 @@
         <v>9.172151898734178</v>
       </c>
       <c r="K11" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N11">
         <v>4050</v>
@@ -1645,16 +1636,16 @@
         <v>0</v>
       </c>
       <c r="U11" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V11" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W11" t="s">
         <v>26</v>
       </c>
       <c r="X11" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="12" spans="1:24">
@@ -1689,13 +1680,13 @@
         <v>9.172151898734178</v>
       </c>
       <c r="K12" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N12">
         <v>4050</v>
@@ -1716,16 +1707,16 @@
         <v>0</v>
       </c>
       <c r="U12" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="V12" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W12" t="s">
         <v>26</v>
       </c>
       <c r="X12" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="13" spans="1:24">
@@ -1745,28 +1736,28 @@
         <v>45699.09028522945</v>
       </c>
       <c r="F13" s="2">
-        <v>45699.09028522945</v>
+        <v>45699.1402553279</v>
       </c>
       <c r="G13">
         <v>6</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>11</v>
       </c>
       <c r="I13">
-        <v>0</v>
+        <v>1.199282362682859</v>
       </c>
       <c r="J13">
-        <v>0</v>
+        <v>9.172151898734178</v>
       </c>
       <c r="K13" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N13">
         <v>4050</v>
@@ -1787,16 +1778,16 @@
         <v>0</v>
       </c>
       <c r="U13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="V13" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W13" t="s">
         <v>26</v>
       </c>
       <c r="X13" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="14" spans="1:24">
@@ -1810,34 +1801,34 @@
         <v>56</v>
       </c>
       <c r="D14" s="2">
-        <v>45699.09028522945</v>
+        <v>45699.1402553279</v>
       </c>
       <c r="E14" s="2">
-        <v>45699.09028522945</v>
+        <v>45699.1402553279</v>
       </c>
       <c r="F14" s="2">
-        <v>45699.1402553279</v>
+        <v>45699.14934080034</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="I14">
-        <v>1.199282362682859</v>
+        <v>0.2180513386696108</v>
       </c>
       <c r="J14">
-        <v>0</v>
+        <v>9.172151898734178</v>
       </c>
       <c r="K14" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N14">
         <v>4050</v>
@@ -1858,16 +1849,16 @@
         <v>0</v>
       </c>
       <c r="U14" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="V14" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W14" t="s">
         <v>26</v>
       </c>
       <c r="X14" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:24">
@@ -1881,13 +1872,13 @@
         <v>57</v>
       </c>
       <c r="D15" s="2">
-        <v>45699.1402553279</v>
+        <v>45699.14934080034</v>
       </c>
       <c r="E15" s="2">
-        <v>45699.1402553279</v>
+        <v>45699.14934080034</v>
       </c>
       <c r="F15" s="2">
-        <v>45699.14934080034</v>
+        <v>45699.15842627279</v>
       </c>
       <c r="G15">
         <v>0</v>
@@ -1902,13 +1893,13 @@
         <v>9.172151898734178</v>
       </c>
       <c r="K15" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N15">
         <v>4050</v>
@@ -1929,16 +1920,16 @@
         <v>0</v>
       </c>
       <c r="U15" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="V15" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W15" t="s">
         <v>26</v>
       </c>
       <c r="X15" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="16" spans="1:24">
@@ -1952,34 +1943,34 @@
         <v>58</v>
       </c>
       <c r="D16" s="2">
-        <v>45699.14934080034</v>
+        <v>45699.15842627279</v>
       </c>
       <c r="E16" s="2">
-        <v>45699.14934080034</v>
+        <v>45699.15842627279</v>
       </c>
       <c r="F16" s="2">
-        <v>45699.15842627279</v>
+        <v>45699.16296900902</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16">
-        <v>0.2180513386696108</v>
+        <v>0.1090256693348054</v>
       </c>
       <c r="J16">
         <v>9.172151898734178</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L16">
         <v>1</v>
       </c>
       <c r="M16" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N16">
         <v>4050</v>
@@ -2000,16 +1991,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="V16" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W16" t="s">
         <v>26</v>
       </c>
       <c r="X16" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="17" spans="1:24">
@@ -2023,34 +2014,34 @@
         <v>59</v>
       </c>
       <c r="D17" s="2">
-        <v>45699.15842627279</v>
+        <v>45699.16296900902</v>
       </c>
       <c r="E17" s="2">
-        <v>45699.15842627279</v>
+        <v>45699.16296900902</v>
       </c>
       <c r="F17" s="2">
-        <v>45699.16296900902</v>
+        <v>45699.1811399539</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I17">
-        <v>0.1090256693348054</v>
+        <v>0.4361026773392216</v>
       </c>
       <c r="J17">
         <v>9.172151898734178</v>
       </c>
       <c r="K17" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L17">
         <v>1</v>
       </c>
       <c r="M17" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N17">
         <v>4050</v>
@@ -2071,16 +2062,16 @@
         <v>0</v>
       </c>
       <c r="U17" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="V17" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W17" t="s">
         <v>26</v>
       </c>
       <c r="X17" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="18" spans="1:24">
@@ -2094,34 +2085,34 @@
         <v>60</v>
       </c>
       <c r="D18" s="2">
-        <v>45699.16296900902</v>
+        <v>45699.1811399539</v>
       </c>
       <c r="E18" s="2">
-        <v>45699.16296900902</v>
+        <v>45699.1811399539</v>
       </c>
       <c r="F18" s="2">
-        <v>45699.1811399539</v>
+        <v>45699.18568269013</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="I18">
-        <v>0.4361026773392216</v>
+        <v>0.1090256693348054</v>
       </c>
       <c r="J18">
         <v>9.172151898734178</v>
       </c>
       <c r="K18" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N18">
         <v>4050</v>
@@ -2142,16 +2133,16 @@
         <v>0</v>
       </c>
       <c r="U18" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="V18" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W18" t="s">
         <v>26</v>
       </c>
       <c r="X18" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="19" spans="1:24">
@@ -2165,13 +2156,13 @@
         <v>61</v>
       </c>
       <c r="D19" s="2">
-        <v>45699.1811399539</v>
+        <v>45699.18568269013</v>
       </c>
       <c r="E19" s="2">
-        <v>45699.1811399539</v>
+        <v>45699.18568269013</v>
       </c>
       <c r="F19" s="2">
-        <v>45699.18568269013</v>
+        <v>45699.19022542636</v>
       </c>
       <c r="G19">
         <v>0</v>
@@ -2186,13 +2177,13 @@
         <v>9.172151898734178</v>
       </c>
       <c r="K19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N19">
         <v>4050</v>
@@ -2213,16 +2204,16 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="V19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W19" t="s">
         <v>26</v>
       </c>
       <c r="X19" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="20" spans="1:24">
@@ -2236,13 +2227,13 @@
         <v>62</v>
       </c>
       <c r="D20" s="2">
-        <v>45699.18568269013</v>
+        <v>45699.19022542636</v>
       </c>
       <c r="E20" s="2">
-        <v>45699.18568269013</v>
+        <v>45699.19022542636</v>
       </c>
       <c r="F20" s="2">
-        <v>45699.19022542636</v>
+        <v>45699.19476816258</v>
       </c>
       <c r="G20">
         <v>0</v>
@@ -2257,13 +2248,13 @@
         <v>9.172151898734178</v>
       </c>
       <c r="K20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N20">
         <v>4050</v>
@@ -2284,16 +2275,16 @@
         <v>0</v>
       </c>
       <c r="U20" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="V20" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W20" t="s">
         <v>26</v>
       </c>
       <c r="X20" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="21" spans="1:24">
@@ -2307,13 +2298,13 @@
         <v>63</v>
       </c>
       <c r="D21" s="2">
-        <v>45699.19022542636</v>
+        <v>45699.19476816258</v>
       </c>
       <c r="E21" s="2">
-        <v>45699.19022542636</v>
+        <v>45699.19476816258</v>
       </c>
       <c r="F21" s="2">
-        <v>45699.19476816258</v>
+        <v>45699.19931089881</v>
       </c>
       <c r="G21">
         <v>0</v>
@@ -2328,13 +2319,13 @@
         <v>9.172151898734178</v>
       </c>
       <c r="K21" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N21">
         <v>4050</v>
@@ -2355,60 +2346,57 @@
         <v>0</v>
       </c>
       <c r="U21" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V21" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W21" t="s">
         <v>26</v>
       </c>
       <c r="X21" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="22" spans="1:24">
       <c r="A22" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B22" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C22" t="s">
         <v>64</v>
       </c>
       <c r="D22" s="2">
-        <v>45699.19476816258</v>
+        <v>45699.19931089881</v>
       </c>
       <c r="E22" s="2">
-        <v>45699.19476816258</v>
+        <v>45699.19931089881</v>
       </c>
       <c r="F22" s="2">
-        <v>45699.19931089881</v>
+        <v>45699.24097756547</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>0.1090256693348054</v>
+        <v>60</v>
       </c>
       <c r="J22">
-        <v>9.172151898734178</v>
+        <v>0</v>
       </c>
       <c r="K22" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L22">
         <v>1</v>
       </c>
-      <c r="M22" t="s">
-        <v>114</v>
-      </c>
       <c r="N22">
-        <v>4050</v>
+        <v>0</v>
       </c>
       <c r="O22">
         <v>0</v>
@@ -2426,24 +2414,24 @@
         <v>0</v>
       </c>
       <c r="U22" t="s">
-        <v>127</v>
+        <v>28</v>
       </c>
       <c r="V22" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W22" t="s">
         <v>26</v>
       </c>
       <c r="X22" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="23" spans="1:24">
       <c r="A23" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B23" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C23" t="s">
         <v>65</v>
@@ -2455,7 +2443,7 @@
         <v>45699.19931089881</v>
       </c>
       <c r="F23" s="2">
-        <v>45699.24097756547</v>
+        <v>45699.22014423214</v>
       </c>
       <c r="G23">
         <v>0</v>
@@ -2464,19 +2452,22 @@
         <v>0</v>
       </c>
       <c r="I23">
-        <v>60</v>
+        <v>0.5</v>
       </c>
       <c r="J23">
         <v>0</v>
       </c>
       <c r="K23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="L23">
         <v>1</v>
       </c>
+      <c r="M23" t="s">
+        <v>113</v>
+      </c>
       <c r="N23">
-        <v>0</v>
+        <v>1550</v>
       </c>
       <c r="O23">
         <v>0</v>
@@ -2497,13 +2488,13 @@
         <v>28</v>
       </c>
       <c r="V23" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W23" t="s">
         <v>26</v>
       </c>
       <c r="X23" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="24" spans="1:24">
@@ -2517,13 +2508,13 @@
         <v>66</v>
       </c>
       <c r="D24" s="2">
-        <v>45699.19931089881</v>
+        <v>45699.22014423214</v>
       </c>
       <c r="E24" s="2">
-        <v>45699.19931089881</v>
+        <v>45699.22014423214</v>
       </c>
       <c r="F24" s="2">
-        <v>45699.22014423214</v>
+        <v>45699.24097756547</v>
       </c>
       <c r="G24">
         <v>0</v>
@@ -2538,16 +2529,13 @@
         <v>0</v>
       </c>
       <c r="K24" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
-      <c r="M24" t="s">
-        <v>116</v>
-      </c>
       <c r="N24">
-        <v>1550</v>
+        <v>0</v>
       </c>
       <c r="O24">
         <v>0</v>
@@ -2568,33 +2556,33 @@
         <v>28</v>
       </c>
       <c r="V24" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
       <c r="W24" t="s">
         <v>26</v>
       </c>
       <c r="X24" t="s">
-        <v>162</v>
+        <v>159</v>
       </c>
     </row>
     <row r="25" spans="1:24">
       <c r="A25" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>24</v>
       </c>
       <c r="C25" t="s">
         <v>67</v>
       </c>
       <c r="D25" s="2">
-        <v>45699.22014423214</v>
+        <v>45699.1875</v>
       </c>
       <c r="E25" s="2">
-        <v>45699.22014423214</v>
+        <v>45699.1875</v>
       </c>
       <c r="F25" s="2">
-        <v>45699.24097756547</v>
+        <v>45699.1875</v>
       </c>
       <c r="G25">
         <v>0</v>
@@ -2603,13 +2591,13 @@
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0.5</v>
+        <v>0</v>
       </c>
       <c r="J25">
         <v>0</v>
       </c>
       <c r="K25" t="s">
-        <v>113</v>
+        <v>107</v>
       </c>
       <c r="L25">
         <v>1</v>
@@ -2636,33 +2624,33 @@
         <v>28</v>
       </c>
       <c r="V25" t="s">
+        <v>158</v>
+      </c>
+      <c r="W25" t="s">
+        <v>26</v>
+      </c>
+      <c r="X25" t="s">
         <v>160</v>
-      </c>
-      <c r="W25" t="s">
-        <v>26</v>
-      </c>
-      <c r="X25" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="26" spans="1:24">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="B26" t="s">
-        <v>24</v>
+        <v>40</v>
       </c>
       <c r="C26" t="s">
         <v>68</v>
       </c>
       <c r="D26" s="2">
-        <v>45699.1875</v>
+        <v>45699.21875</v>
       </c>
       <c r="E26" s="2">
-        <v>45699.1875</v>
+        <v>45699.21875</v>
       </c>
       <c r="F26" s="2">
-        <v>45699.1875</v>
+        <v>45699.25486645436</v>
       </c>
       <c r="G26">
         <v>0</v>
@@ -2674,16 +2662,19 @@
         <v>0</v>
       </c>
       <c r="J26">
-        <v>0</v>
+        <v>12</v>
       </c>
       <c r="K26" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="L26">
         <v>1</v>
       </c>
+      <c r="M26" t="s">
+        <v>111</v>
+      </c>
       <c r="N26">
-        <v>0</v>
+        <v>4050</v>
       </c>
       <c r="O26">
         <v>0</v>
@@ -2704,33 +2695,33 @@
         <v>28</v>
       </c>
       <c r="V26" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W26" t="s">
         <v>26</v>
       </c>
       <c r="X26" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="27" spans="1:24">
       <c r="A27" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C27" t="s">
         <v>69</v>
       </c>
       <c r="D27" s="2">
-        <v>45699.21875</v>
+        <v>45699.22014423214</v>
       </c>
       <c r="E27" s="2">
-        <v>45699.21875</v>
+        <v>45699.22014423214</v>
       </c>
       <c r="F27" s="2">
-        <v>45699.25486645436</v>
+        <v>45699.23403312103</v>
       </c>
       <c r="G27">
         <v>0</v>
@@ -2742,19 +2733,19 @@
         <v>0</v>
       </c>
       <c r="J27">
-        <v>12</v>
+        <v>0</v>
       </c>
       <c r="K27" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L27">
         <v>1</v>
       </c>
       <c r="M27" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N27">
-        <v>4050</v>
+        <v>2500</v>
       </c>
       <c r="O27">
         <v>0</v>
@@ -2775,13 +2766,13 @@
         <v>28</v>
       </c>
       <c r="V27" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W27" t="s">
         <v>26</v>
       </c>
       <c r="X27" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="28" spans="1:24">
@@ -2795,13 +2786,13 @@
         <v>70</v>
       </c>
       <c r="D28" s="2">
-        <v>45699.22014423214</v>
+        <v>45699.24097756547</v>
       </c>
       <c r="E28" s="2">
-        <v>45699.22014423214</v>
+        <v>45699.24097756547</v>
       </c>
       <c r="F28" s="2">
-        <v>45699.23403312103</v>
+        <v>45699.25486645436</v>
       </c>
       <c r="G28">
         <v>0</v>
@@ -2816,16 +2807,16 @@
         <v>0</v>
       </c>
       <c r="K28" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L28">
         <v>1</v>
       </c>
       <c r="M28" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
       <c r="N28">
-        <v>2500</v>
+        <v>4050</v>
       </c>
       <c r="O28">
         <v>0</v>
@@ -2846,54 +2837,54 @@
         <v>28</v>
       </c>
       <c r="V28" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W28" t="s">
         <v>26</v>
       </c>
       <c r="X28" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="29" spans="1:24">
       <c r="A29" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C29" t="s">
         <v>71</v>
       </c>
       <c r="D29" s="2">
-        <v>45699.24097756547</v>
+        <v>45699.25486645436</v>
       </c>
       <c r="E29" s="2">
-        <v>45699.24097756547</v>
+        <v>45699.25486645436</v>
       </c>
       <c r="F29" s="2">
-        <v>45699.25486645436</v>
+        <v>45700.80707987981</v>
       </c>
       <c r="G29">
         <v>0</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>136</v>
       </c>
       <c r="I29">
-        <v>0</v>
+        <v>14.96283080582813</v>
       </c>
       <c r="J29">
-        <v>0</v>
+        <v>9.089189189189188</v>
       </c>
       <c r="K29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L29">
         <v>1</v>
       </c>
       <c r="M29" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N29">
         <v>4050</v>
@@ -2917,21 +2908,21 @@
         <v>28</v>
       </c>
       <c r="V29" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W29" t="s">
         <v>26</v>
       </c>
       <c r="X29" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="30" spans="1:24">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B30" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C30" t="s">
         <v>72</v>
@@ -2943,28 +2934,28 @@
         <v>45699.25486645436</v>
       </c>
       <c r="F30" s="2">
-        <v>45700.80707987981</v>
+        <v>45699.27778745743</v>
       </c>
       <c r="G30">
         <v>0</v>
       </c>
       <c r="H30">
-        <v>136</v>
+        <v>5</v>
       </c>
       <c r="I30">
-        <v>14.96283080582813</v>
+        <v>0.5501040737436813</v>
       </c>
       <c r="J30">
         <v>9.089189189189188</v>
       </c>
       <c r="K30" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="L30">
         <v>1</v>
       </c>
       <c r="M30" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N30">
         <v>4050</v>
@@ -2988,13 +2979,13 @@
         <v>28</v>
       </c>
       <c r="V30" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W30" t="s">
         <v>26</v>
       </c>
       <c r="X30" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="31" spans="1:24">
@@ -3008,34 +2999,34 @@
         <v>73</v>
       </c>
       <c r="D31" s="2">
-        <v>45699.25486645436</v>
+        <v>45699.27778745743</v>
       </c>
       <c r="E31" s="2">
-        <v>45699.25486645436</v>
+        <v>45699.27778745743</v>
       </c>
       <c r="F31" s="2">
-        <v>45699.27778745743</v>
+        <v>45699.28695585866</v>
       </c>
       <c r="G31">
         <v>0</v>
       </c>
       <c r="H31">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="I31">
-        <v>0.5501040737436813</v>
+        <v>0.2200416294974725</v>
       </c>
       <c r="J31">
         <v>9.089189189189188</v>
       </c>
       <c r="K31" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L31">
         <v>1</v>
       </c>
       <c r="M31" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N31">
         <v>4050</v>
@@ -3056,16 +3047,16 @@
         <v>0</v>
       </c>
       <c r="U31" t="s">
-        <v>28</v>
+        <v>125</v>
       </c>
       <c r="V31" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W31" t="s">
         <v>26</v>
       </c>
       <c r="X31" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="32" spans="1:24">
@@ -3079,13 +3070,13 @@
         <v>74</v>
       </c>
       <c r="D32" s="2">
-        <v>45699.27778745743</v>
+        <v>45699.28695585866</v>
       </c>
       <c r="E32" s="2">
-        <v>45699.27778745743</v>
+        <v>45699.28695585866</v>
       </c>
       <c r="F32" s="2">
-        <v>45699.28695585866</v>
+        <v>45699.29612425988</v>
       </c>
       <c r="G32">
         <v>0</v>
@@ -3100,13 +3091,13 @@
         <v>9.089189189189188</v>
       </c>
       <c r="K32" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L32">
         <v>1</v>
       </c>
       <c r="M32" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N32">
         <v>4050</v>
@@ -3127,16 +3118,16 @@
         <v>0</v>
       </c>
       <c r="U32" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="V32" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W32" t="s">
         <v>26</v>
       </c>
       <c r="X32" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="33" spans="1:24">
@@ -3150,34 +3141,34 @@
         <v>75</v>
       </c>
       <c r="D33" s="2">
-        <v>45699.28695585866</v>
+        <v>45699.29612425988</v>
       </c>
       <c r="E33" s="2">
-        <v>45699.28695585866</v>
+        <v>45699.29612425988</v>
       </c>
       <c r="F33" s="2">
-        <v>45699.29612425988</v>
+        <v>45699.3007084605</v>
       </c>
       <c r="G33">
         <v>0</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I33">
-        <v>0.2200416294974725</v>
+        <v>0.1100208147487363</v>
       </c>
       <c r="J33">
         <v>9.089189189189188</v>
       </c>
       <c r="K33" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L33">
         <v>1</v>
       </c>
       <c r="M33" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N33">
         <v>4050</v>
@@ -3198,16 +3189,16 @@
         <v>0</v>
       </c>
       <c r="U33" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="V33" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W33" t="s">
         <v>26</v>
       </c>
       <c r="X33" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="34" spans="1:24">
@@ -3221,34 +3212,34 @@
         <v>76</v>
       </c>
       <c r="D34" s="2">
-        <v>45699.29612425988</v>
+        <v>45699.3007084605</v>
       </c>
       <c r="E34" s="2">
-        <v>45699.29612425988</v>
+        <v>45699.3007084605</v>
       </c>
       <c r="F34" s="2">
-        <v>45699.3007084605</v>
+        <v>45699.31904526295</v>
       </c>
       <c r="G34">
         <v>0</v>
       </c>
       <c r="H34">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I34">
-        <v>0.1100208147487363</v>
+        <v>0.440083258994945</v>
       </c>
       <c r="J34">
         <v>9.089189189189188</v>
       </c>
       <c r="K34" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L34">
         <v>1</v>
       </c>
       <c r="M34" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N34">
         <v>4050</v>
@@ -3269,16 +3260,16 @@
         <v>0</v>
       </c>
       <c r="U34" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="V34" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W34" t="s">
         <v>26</v>
       </c>
       <c r="X34" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="35" spans="1:24">
@@ -3292,34 +3283,34 @@
         <v>77</v>
       </c>
       <c r="D35" s="2">
-        <v>45699.3007084605</v>
+        <v>45699.31904526295</v>
       </c>
       <c r="E35" s="2">
-        <v>45699.3007084605</v>
+        <v>45699.31904526295</v>
       </c>
       <c r="F35" s="2">
-        <v>45699.31904526295</v>
+        <v>45699.32821366418</v>
       </c>
       <c r="G35">
         <v>0</v>
       </c>
       <c r="H35">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="I35">
-        <v>0.440083258994945</v>
+        <v>0.2200416294974725</v>
       </c>
       <c r="J35">
         <v>9.089189189189188</v>
       </c>
       <c r="K35" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L35">
         <v>1</v>
       </c>
       <c r="M35" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N35">
         <v>4050</v>
@@ -3340,16 +3331,16 @@
         <v>0</v>
       </c>
       <c r="U35" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="V35" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W35" t="s">
         <v>26</v>
       </c>
       <c r="X35" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="36" spans="1:24">
@@ -3363,34 +3354,34 @@
         <v>78</v>
       </c>
       <c r="D36" s="2">
-        <v>45699.31904526295</v>
+        <v>45699.32821366418</v>
       </c>
       <c r="E36" s="2">
-        <v>45699.31904526295</v>
+        <v>45699.32821366418</v>
       </c>
       <c r="F36" s="2">
-        <v>45699.32821366418</v>
+        <v>45699.34196626602</v>
       </c>
       <c r="G36">
         <v>0</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I36">
-        <v>0.2200416294974725</v>
+        <v>0.3300624442462088</v>
       </c>
       <c r="J36">
         <v>9.089189189189188</v>
       </c>
       <c r="K36" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L36">
         <v>1</v>
       </c>
       <c r="M36" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N36">
         <v>4050</v>
@@ -3411,16 +3402,16 @@
         <v>0</v>
       </c>
       <c r="U36" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="V36" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W36" t="s">
         <v>26</v>
       </c>
       <c r="X36" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="37" spans="1:24">
@@ -3434,34 +3425,34 @@
         <v>79</v>
       </c>
       <c r="D37" s="2">
-        <v>45699.32821366418</v>
+        <v>45699.34196626602</v>
       </c>
       <c r="E37" s="2">
-        <v>45699.32821366418</v>
+        <v>45699.34196626602</v>
       </c>
       <c r="F37" s="2">
-        <v>45699.34196626602</v>
+        <v>45699.36030306848</v>
       </c>
       <c r="G37">
         <v>0</v>
       </c>
       <c r="H37">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="I37">
-        <v>0.3300624442462088</v>
+        <v>0.440083258994945</v>
       </c>
       <c r="J37">
         <v>9.089189189189188</v>
       </c>
       <c r="K37" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L37">
         <v>1</v>
       </c>
       <c r="M37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N37">
         <v>4050</v>
@@ -3482,16 +3473,16 @@
         <v>0</v>
       </c>
       <c r="U37" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="V37" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W37" t="s">
         <v>26</v>
       </c>
       <c r="X37" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="38" spans="1:24">
@@ -3505,34 +3496,34 @@
         <v>80</v>
       </c>
       <c r="D38" s="2">
-        <v>45699.34196626602</v>
+        <v>45699.36030306848</v>
       </c>
       <c r="E38" s="2">
-        <v>45699.34196626602</v>
+        <v>45699.36030306848</v>
       </c>
       <c r="F38" s="2">
-        <v>45699.36030306848</v>
+        <v>45699.41072927523</v>
       </c>
       <c r="G38">
         <v>0</v>
       </c>
       <c r="H38">
-        <v>4</v>
+        <v>11</v>
       </c>
       <c r="I38">
-        <v>0.440083258994945</v>
+        <v>1.210228962236099</v>
       </c>
       <c r="J38">
         <v>9.089189189189188</v>
       </c>
       <c r="K38" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L38">
         <v>1</v>
       </c>
       <c r="M38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N38">
         <v>4050</v>
@@ -3553,16 +3544,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="V38" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W38" t="s">
         <v>26</v>
       </c>
       <c r="X38" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="39" spans="1:24">
@@ -3576,34 +3567,34 @@
         <v>81</v>
       </c>
       <c r="D39" s="2">
-        <v>45699.36030306848</v>
+        <v>45699.41072927523</v>
       </c>
       <c r="E39" s="2">
-        <v>45699.36030306848</v>
+        <v>45699.41072927523</v>
       </c>
       <c r="F39" s="2">
-        <v>45699.41072927523</v>
+        <v>45699.41531347585</v>
       </c>
       <c r="G39">
         <v>0</v>
       </c>
       <c r="H39">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="I39">
-        <v>1.210228962236099</v>
+        <v>0.1100208147487363</v>
       </c>
       <c r="J39">
         <v>9.089189189189188</v>
       </c>
       <c r="K39" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L39">
         <v>1</v>
       </c>
       <c r="M39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N39">
         <v>4050</v>
@@ -3624,16 +3615,16 @@
         <v>0</v>
       </c>
       <c r="U39" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="V39" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W39" t="s">
         <v>26</v>
       </c>
       <c r="X39" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="40" spans="1:24">
@@ -3647,34 +3638,34 @@
         <v>82</v>
       </c>
       <c r="D40" s="2">
-        <v>45699.41072927523</v>
+        <v>45699.41531347585</v>
       </c>
       <c r="E40" s="2">
-        <v>45699.41072927523</v>
+        <v>45699.41531347585</v>
       </c>
       <c r="F40" s="2">
-        <v>45699.41531347585</v>
+        <v>45699.51158168875</v>
       </c>
       <c r="G40">
         <v>0</v>
       </c>
       <c r="H40">
-        <v>1</v>
+        <v>21</v>
       </c>
       <c r="I40">
-        <v>0.1100208147487363</v>
+        <v>2.310437109723461</v>
       </c>
       <c r="J40">
         <v>9.089189189189188</v>
       </c>
       <c r="K40" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L40">
         <v>1</v>
       </c>
       <c r="M40" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N40">
         <v>4050</v>
@@ -3695,16 +3686,16 @@
         <v>0</v>
       </c>
       <c r="U40" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="V40" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W40" t="s">
         <v>26</v>
       </c>
       <c r="X40" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="41" spans="1:24">
@@ -3718,34 +3709,34 @@
         <v>83</v>
       </c>
       <c r="D41" s="2">
-        <v>45699.41531347585</v>
+        <v>45699.51158168875</v>
       </c>
       <c r="E41" s="2">
-        <v>45699.41531347585</v>
+        <v>45699.51158168875</v>
       </c>
       <c r="F41" s="2">
-        <v>45699.51158168875</v>
+        <v>45699.52075008998</v>
       </c>
       <c r="G41">
         <v>0</v>
       </c>
       <c r="H41">
-        <v>21</v>
+        <v>2</v>
       </c>
       <c r="I41">
-        <v>2.310437109723461</v>
+        <v>0.2200416294974725</v>
       </c>
       <c r="J41">
         <v>9.089189189189188</v>
       </c>
       <c r="K41" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L41">
         <v>1</v>
       </c>
       <c r="M41" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N41">
         <v>4050</v>
@@ -3766,16 +3757,16 @@
         <v>0</v>
       </c>
       <c r="U41" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="V41" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W41" t="s">
         <v>26</v>
       </c>
       <c r="X41" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="42" spans="1:24">
@@ -3789,34 +3780,34 @@
         <v>84</v>
       </c>
       <c r="D42" s="2">
-        <v>45699.51158168875</v>
+        <v>45699.52075008998</v>
       </c>
       <c r="E42" s="2">
-        <v>45699.51158168875</v>
+        <v>45699.52075008998</v>
       </c>
       <c r="F42" s="2">
-        <v>45699.52075008998</v>
+        <v>45699.54825529367</v>
       </c>
       <c r="G42">
         <v>0</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="I42">
-        <v>0.2200416294974725</v>
+        <v>0.6601248884924176</v>
       </c>
       <c r="J42">
         <v>9.089189189189188</v>
       </c>
       <c r="K42" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L42">
         <v>1</v>
       </c>
       <c r="M42" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N42">
         <v>4050</v>
@@ -3837,16 +3828,16 @@
         <v>0</v>
       </c>
       <c r="U42" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="V42" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W42" t="s">
         <v>26</v>
       </c>
       <c r="X42" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="43" spans="1:24">
@@ -3860,34 +3851,34 @@
         <v>85</v>
       </c>
       <c r="D43" s="2">
-        <v>45699.52075008998</v>
+        <v>45699.54825529367</v>
       </c>
       <c r="E43" s="2">
-        <v>45699.52075008998</v>
+        <v>45699.54825529367</v>
       </c>
       <c r="F43" s="2">
-        <v>45699.54825529367</v>
+        <v>45699.59868150043</v>
       </c>
       <c r="G43">
         <v>0</v>
       </c>
       <c r="H43">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="I43">
-        <v>0.6601248884924176</v>
+        <v>1.210228962236099</v>
       </c>
       <c r="J43">
         <v>9.089189189189188</v>
       </c>
       <c r="K43" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L43">
         <v>1</v>
       </c>
       <c r="M43" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N43">
         <v>4050</v>
@@ -3908,16 +3899,16 @@
         <v>0</v>
       </c>
       <c r="U43" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="V43" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W43" t="s">
         <v>26</v>
       </c>
       <c r="X43" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="44" spans="1:24">
@@ -3931,34 +3922,34 @@
         <v>86</v>
       </c>
       <c r="D44" s="2">
-        <v>45699.54825529367</v>
+        <v>45699.59868150043</v>
       </c>
       <c r="E44" s="2">
-        <v>45699.54825529367</v>
+        <v>45699.59868150043</v>
       </c>
       <c r="F44" s="2">
-        <v>45699.59868150043</v>
+        <v>45699.61243410227</v>
       </c>
       <c r="G44">
         <v>0</v>
       </c>
       <c r="H44">
-        <v>11</v>
+        <v>3</v>
       </c>
       <c r="I44">
-        <v>1.210228962236099</v>
+        <v>0.3300624442462088</v>
       </c>
       <c r="J44">
         <v>9.089189189189188</v>
       </c>
       <c r="K44" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L44">
         <v>1</v>
       </c>
       <c r="M44" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N44">
         <v>4050</v>
@@ -3979,16 +3970,16 @@
         <v>0</v>
       </c>
       <c r="U44" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="V44" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W44" t="s">
         <v>26</v>
       </c>
       <c r="X44" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="45" spans="1:24">
@@ -4002,13 +3993,13 @@
         <v>87</v>
       </c>
       <c r="D45" s="2">
-        <v>45699.59868150043</v>
+        <v>45699.61243410227</v>
       </c>
       <c r="E45" s="2">
-        <v>45699.59868150043</v>
+        <v>45699.61243410227</v>
       </c>
       <c r="F45" s="2">
-        <v>45699.61243410227</v>
+        <v>45699.62618670411</v>
       </c>
       <c r="G45">
         <v>0</v>
@@ -4023,13 +4014,13 @@
         <v>9.089189189189188</v>
       </c>
       <c r="K45" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L45">
         <v>1</v>
       </c>
       <c r="M45" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N45">
         <v>4050</v>
@@ -4050,16 +4041,16 @@
         <v>0</v>
       </c>
       <c r="U45" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="V45" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W45" t="s">
         <v>26</v>
       </c>
       <c r="X45" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="46" spans="1:24">
@@ -4073,34 +4064,34 @@
         <v>88</v>
       </c>
       <c r="D46" s="2">
-        <v>45699.61243410227</v>
+        <v>45699.62618670411</v>
       </c>
       <c r="E46" s="2">
-        <v>45699.61243410227</v>
+        <v>45700.27369884604</v>
       </c>
       <c r="F46" s="2">
-        <v>45699.62618670411</v>
+        <v>45700.33787765464</v>
       </c>
       <c r="G46">
-        <v>0</v>
+        <v>15.54029140638889</v>
       </c>
       <c r="H46">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="I46">
-        <v>0.3300624442462088</v>
+        <v>1.540291406482308</v>
       </c>
       <c r="J46">
         <v>9.089189189189188</v>
       </c>
       <c r="K46" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L46">
         <v>1</v>
       </c>
       <c r="M46" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N46">
         <v>4050</v>
@@ -4121,16 +4112,16 @@
         <v>0</v>
       </c>
       <c r="U46" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="V46" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W46" t="s">
         <v>26</v>
       </c>
       <c r="X46" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="47" spans="1:24">
@@ -4144,34 +4135,34 @@
         <v>89</v>
       </c>
       <c r="D47" s="2">
-        <v>45699.62618670411</v>
+        <v>45700.33787765464</v>
       </c>
       <c r="E47" s="2">
-        <v>45700.27369884604</v>
+        <v>45700.33787765464</v>
       </c>
       <c r="F47" s="2">
-        <v>45700.27369884604</v>
+        <v>45700.34704605587</v>
       </c>
       <c r="G47">
-        <v>15.54029140638889</v>
+        <v>0</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I47">
-        <v>0</v>
+        <v>0.2200416294974725</v>
       </c>
       <c r="J47">
-        <v>0</v>
+        <v>9.089189189189188</v>
       </c>
       <c r="K47" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L47">
         <v>1</v>
       </c>
       <c r="M47" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N47">
         <v>4050</v>
@@ -4192,16 +4183,16 @@
         <v>0</v>
       </c>
       <c r="U47" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="V47" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W47" t="s">
         <v>26</v>
       </c>
       <c r="X47" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="48" spans="1:24">
@@ -4215,34 +4206,34 @@
         <v>90</v>
       </c>
       <c r="D48" s="2">
-        <v>45700.27369884604</v>
+        <v>45700.34704605587</v>
       </c>
       <c r="E48" s="2">
-        <v>45700.27369884604</v>
+        <v>45700.34704605587</v>
       </c>
       <c r="F48" s="2">
-        <v>45700.33787765464</v>
+        <v>45700.3562144571</v>
       </c>
       <c r="G48">
         <v>0</v>
       </c>
       <c r="H48">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="I48">
-        <v>1.540291406482308</v>
+        <v>0.2200416294974725</v>
       </c>
       <c r="J48">
-        <v>0</v>
+        <v>9.089189189189188</v>
       </c>
       <c r="K48" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="L48">
         <v>1</v>
       </c>
       <c r="M48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N48">
         <v>4050</v>
@@ -4263,16 +4254,16 @@
         <v>0</v>
       </c>
       <c r="U48" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="V48" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W48" t="s">
         <v>26</v>
       </c>
       <c r="X48" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="49" spans="1:24">
@@ -4286,13 +4277,13 @@
         <v>91</v>
       </c>
       <c r="D49" s="2">
-        <v>45700.33787765464</v>
+        <v>45700.3562144571</v>
       </c>
       <c r="E49" s="2">
-        <v>45700.33787765464</v>
+        <v>45700.3562144571</v>
       </c>
       <c r="F49" s="2">
-        <v>45700.34704605587</v>
+        <v>45700.36538285832</v>
       </c>
       <c r="G49">
         <v>0</v>
@@ -4307,13 +4298,13 @@
         <v>9.089189189189188</v>
       </c>
       <c r="K49" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L49">
         <v>1</v>
       </c>
       <c r="M49" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N49">
         <v>4050</v>
@@ -4334,16 +4325,16 @@
         <v>0</v>
       </c>
       <c r="U49" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="V49" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W49" t="s">
         <v>26</v>
       </c>
       <c r="X49" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="50" spans="1:24">
@@ -4357,34 +4348,34 @@
         <v>92</v>
       </c>
       <c r="D50" s="2">
-        <v>45700.34704605587</v>
+        <v>45700.36538285832</v>
       </c>
       <c r="E50" s="2">
-        <v>45700.34704605587</v>
+        <v>45700.36538285832</v>
       </c>
       <c r="F50" s="2">
-        <v>45700.3562144571</v>
+        <v>45700.39747226263</v>
       </c>
       <c r="G50">
         <v>0</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="I50">
-        <v>0.2200416294974725</v>
+        <v>0.7701457032411538</v>
       </c>
       <c r="J50">
         <v>9.089189189189188</v>
       </c>
       <c r="K50" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L50">
         <v>1</v>
       </c>
       <c r="M50" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N50">
         <v>4050</v>
@@ -4405,16 +4396,16 @@
         <v>0</v>
       </c>
       <c r="U50" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="V50" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W50" t="s">
         <v>26</v>
       </c>
       <c r="X50" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="51" spans="1:24">
@@ -4428,34 +4419,34 @@
         <v>93</v>
       </c>
       <c r="D51" s="2">
-        <v>45700.3562144571</v>
+        <v>45700.39747226263</v>
       </c>
       <c r="E51" s="2">
-        <v>45700.3562144571</v>
+        <v>45700.39747226263</v>
       </c>
       <c r="F51" s="2">
-        <v>45700.36538285832</v>
+        <v>45700.44331426877</v>
       </c>
       <c r="G51">
         <v>0</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="I51">
-        <v>0.2200416294974725</v>
+        <v>1.100208147487363</v>
       </c>
       <c r="J51">
         <v>9.089189189189188</v>
       </c>
       <c r="K51" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L51">
         <v>1</v>
       </c>
       <c r="M51" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N51">
         <v>4050</v>
@@ -4476,16 +4467,16 @@
         <v>0</v>
       </c>
       <c r="U51" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="V51" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W51" t="s">
         <v>26</v>
       </c>
       <c r="X51" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="52" spans="1:24">
@@ -4499,34 +4490,34 @@
         <v>94</v>
       </c>
       <c r="D52" s="2">
-        <v>45700.36538285832</v>
+        <v>45700.44331426877</v>
       </c>
       <c r="E52" s="2">
-        <v>45700.36538285832</v>
+        <v>45700.44331426877</v>
       </c>
       <c r="F52" s="2">
-        <v>45700.39747226263</v>
+        <v>45700.45248267</v>
       </c>
       <c r="G52">
         <v>0</v>
       </c>
       <c r="H52">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="I52">
-        <v>0.7701457032411538</v>
+        <v>0.2200416294974725</v>
       </c>
       <c r="J52">
         <v>9.089189189189188</v>
       </c>
       <c r="K52" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L52">
         <v>1</v>
       </c>
       <c r="M52" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N52">
         <v>4050</v>
@@ -4547,16 +4538,16 @@
         <v>0</v>
       </c>
       <c r="U52" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="V52" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W52" t="s">
         <v>26</v>
       </c>
       <c r="X52" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="53" spans="1:24">
@@ -4570,34 +4561,34 @@
         <v>95</v>
       </c>
       <c r="D53" s="2">
-        <v>45700.39747226263</v>
+        <v>45700.45248267</v>
       </c>
       <c r="E53" s="2">
-        <v>45700.39747226263</v>
+        <v>45700.45248267</v>
       </c>
       <c r="F53" s="2">
-        <v>45700.44331426877</v>
+        <v>45700.46623527184</v>
       </c>
       <c r="G53">
         <v>0</v>
       </c>
       <c r="H53">
-        <v>10</v>
+        <v>3</v>
       </c>
       <c r="I53">
-        <v>1.100208147487363</v>
+        <v>0.3300624442462088</v>
       </c>
       <c r="J53">
         <v>9.089189189189188</v>
       </c>
       <c r="K53" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L53">
         <v>1</v>
       </c>
       <c r="M53" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N53">
         <v>4050</v>
@@ -4618,16 +4609,16 @@
         <v>0</v>
       </c>
       <c r="U53" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="V53" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W53" t="s">
         <v>26</v>
       </c>
       <c r="X53" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="54" spans="1:24">
@@ -4641,13 +4632,13 @@
         <v>96</v>
       </c>
       <c r="D54" s="2">
-        <v>45700.44331426877</v>
+        <v>45700.46623527184</v>
       </c>
       <c r="E54" s="2">
-        <v>45700.44331426877</v>
+        <v>45700.46623527184</v>
       </c>
       <c r="F54" s="2">
-        <v>45700.45248267</v>
+        <v>45700.47540367307</v>
       </c>
       <c r="G54">
         <v>0</v>
@@ -4662,13 +4653,13 @@
         <v>9.089189189189188</v>
       </c>
       <c r="K54" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L54">
         <v>1</v>
       </c>
       <c r="M54" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N54">
         <v>4050</v>
@@ -4689,16 +4680,16 @@
         <v>0</v>
       </c>
       <c r="U54" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="V54" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W54" t="s">
         <v>26</v>
       </c>
       <c r="X54" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="55" spans="1:24">
@@ -4712,34 +4703,34 @@
         <v>97</v>
       </c>
       <c r="D55" s="2">
-        <v>45700.45248267</v>
+        <v>45700.47540367307</v>
       </c>
       <c r="E55" s="2">
-        <v>45700.45248267</v>
+        <v>45700.47540367307</v>
       </c>
       <c r="F55" s="2">
-        <v>45700.46623527184</v>
+        <v>45700.47998787368</v>
       </c>
       <c r="G55">
         <v>0</v>
       </c>
       <c r="H55">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="I55">
-        <v>0.3300624442462088</v>
+        <v>0.1100208147487363</v>
       </c>
       <c r="J55">
         <v>9.089189189189188</v>
       </c>
       <c r="K55" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L55">
         <v>1</v>
       </c>
       <c r="M55" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N55">
         <v>4050</v>
@@ -4760,16 +4751,16 @@
         <v>0</v>
       </c>
       <c r="U55" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="V55" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W55" t="s">
         <v>26</v>
       </c>
       <c r="X55" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="56" spans="1:24">
@@ -4783,34 +4774,34 @@
         <v>98</v>
       </c>
       <c r="D56" s="2">
-        <v>45700.46623527184</v>
+        <v>45700.47998787368</v>
       </c>
       <c r="E56" s="2">
-        <v>45700.46623527184</v>
+        <v>45700.47998787368</v>
       </c>
       <c r="F56" s="2">
-        <v>45700.47540367307</v>
+        <v>45700.4845720743</v>
       </c>
       <c r="G56">
         <v>0</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I56">
-        <v>0.2200416294974725</v>
+        <v>0.1100208147487363</v>
       </c>
       <c r="J56">
         <v>9.089189189189188</v>
       </c>
       <c r="K56" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L56">
         <v>1</v>
       </c>
       <c r="M56" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N56">
         <v>4050</v>
@@ -4831,16 +4822,16 @@
         <v>0</v>
       </c>
       <c r="U56" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="V56" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W56" t="s">
         <v>26</v>
       </c>
       <c r="X56" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="57" spans="1:24">
@@ -4854,34 +4845,34 @@
         <v>99</v>
       </c>
       <c r="D57" s="2">
-        <v>45700.47540367307</v>
+        <v>45700.4845720743</v>
       </c>
       <c r="E57" s="2">
-        <v>45700.47540367307</v>
+        <v>45700.4845720743</v>
       </c>
       <c r="F57" s="2">
-        <v>45700.47998787368</v>
+        <v>45700.49374047552</v>
       </c>
       <c r="G57">
         <v>0</v>
       </c>
       <c r="H57">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I57">
-        <v>0.1100208147487363</v>
+        <v>0.2200416294974725</v>
       </c>
       <c r="J57">
         <v>9.089189189189188</v>
       </c>
       <c r="K57" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L57">
         <v>1</v>
       </c>
       <c r="M57" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N57">
         <v>4050</v>
@@ -4902,16 +4893,16 @@
         <v>0</v>
       </c>
       <c r="U57" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="V57" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W57" t="s">
         <v>26</v>
       </c>
       <c r="X57" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:24">
@@ -4925,13 +4916,13 @@
         <v>100</v>
       </c>
       <c r="D58" s="2">
-        <v>45700.47998787368</v>
+        <v>45700.49374047552</v>
       </c>
       <c r="E58" s="2">
-        <v>45700.47998787368</v>
+        <v>45700.49374047552</v>
       </c>
       <c r="F58" s="2">
-        <v>45700.4845720743</v>
+        <v>45700.49832467613</v>
       </c>
       <c r="G58">
         <v>0</v>
@@ -4946,13 +4937,13 @@
         <v>9.089189189189188</v>
       </c>
       <c r="K58" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L58">
         <v>1</v>
       </c>
       <c r="M58" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N58">
         <v>4050</v>
@@ -4973,16 +4964,16 @@
         <v>0</v>
       </c>
       <c r="U58" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="V58" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W58" t="s">
         <v>26</v>
       </c>
       <c r="X58" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:24">
@@ -4996,13 +4987,13 @@
         <v>101</v>
       </c>
       <c r="D59" s="2">
-        <v>45700.4845720743</v>
+        <v>45700.49832467613</v>
       </c>
       <c r="E59" s="2">
-        <v>45700.4845720743</v>
+        <v>45700.49832467613</v>
       </c>
       <c r="F59" s="2">
-        <v>45700.49374047552</v>
+        <v>45700.50749307736</v>
       </c>
       <c r="G59">
         <v>0</v>
@@ -5017,13 +5008,13 @@
         <v>9.089189189189188</v>
       </c>
       <c r="K59" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L59">
         <v>1</v>
       </c>
       <c r="M59" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N59">
         <v>4050</v>
@@ -5044,16 +5035,16 @@
         <v>0</v>
       </c>
       <c r="U59" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="V59" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W59" t="s">
         <v>26</v>
       </c>
       <c r="X59" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:24">
@@ -5067,13 +5058,13 @@
         <v>102</v>
       </c>
       <c r="D60" s="2">
-        <v>45700.49374047552</v>
+        <v>45700.50749307736</v>
       </c>
       <c r="E60" s="2">
-        <v>45700.49374047552</v>
+        <v>45700.50749307736</v>
       </c>
       <c r="F60" s="2">
-        <v>45700.49832467613</v>
+        <v>45700.51207727798</v>
       </c>
       <c r="G60">
         <v>0</v>
@@ -5088,13 +5079,13 @@
         <v>9.089189189189188</v>
       </c>
       <c r="K60" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L60">
         <v>1</v>
       </c>
       <c r="M60" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N60">
         <v>4050</v>
@@ -5115,16 +5106,16 @@
         <v>0</v>
       </c>
       <c r="U60" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="V60" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W60" t="s">
         <v>26</v>
       </c>
       <c r="X60" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="61" spans="1:24">
@@ -5138,34 +5129,34 @@
         <v>103</v>
       </c>
       <c r="D61" s="2">
-        <v>45700.49832467613</v>
+        <v>45700.51207727798</v>
       </c>
       <c r="E61" s="2">
-        <v>45700.49832467613</v>
+        <v>45700.51207727798</v>
       </c>
       <c r="F61" s="2">
-        <v>45700.50749307736</v>
+        <v>45700.51666147858</v>
       </c>
       <c r="G61">
         <v>0</v>
       </c>
       <c r="H61">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I61">
-        <v>0.2200416294974725</v>
+        <v>0.1100208147487363</v>
       </c>
       <c r="J61">
         <v>9.089189189189188</v>
       </c>
       <c r="K61" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L61">
         <v>1</v>
       </c>
       <c r="M61" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N61">
         <v>4050</v>
@@ -5186,16 +5177,16 @@
         <v>0</v>
       </c>
       <c r="U61" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="V61" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W61" t="s">
         <v>26</v>
       </c>
       <c r="X61" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="62" spans="1:24">
@@ -5209,34 +5200,34 @@
         <v>104</v>
       </c>
       <c r="D62" s="2">
-        <v>45700.50749307736</v>
+        <v>45700.51666147858</v>
       </c>
       <c r="E62" s="2">
-        <v>45700.50749307736</v>
+        <v>45700.51666147858</v>
       </c>
       <c r="F62" s="2">
-        <v>45700.51207727798</v>
+        <v>45700.52582987981</v>
       </c>
       <c r="G62">
         <v>0</v>
       </c>
       <c r="H62">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I62">
-        <v>0.1100208147487363</v>
+        <v>0.2200416294974725</v>
       </c>
       <c r="J62">
         <v>9.089189189189188</v>
       </c>
       <c r="K62" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="L62">
         <v>1</v>
       </c>
       <c r="M62" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="N62">
         <v>4050</v>
@@ -5257,60 +5248,60 @@
         <v>0</v>
       </c>
       <c r="U62" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="V62" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W62" t="s">
         <v>26</v>
       </c>
       <c r="X62" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="63" spans="1:24">
       <c r="A63" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B63" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C63" t="s">
         <v>105</v>
       </c>
       <c r="D63" s="2">
-        <v>45700.51207727798</v>
+        <v>45700.52582987981</v>
       </c>
       <c r="E63" s="2">
-        <v>45700.51207727798</v>
+        <v>45700.52582987981</v>
       </c>
       <c r="F63" s="2">
-        <v>45700.51666147858</v>
+        <v>45700.69944099092</v>
       </c>
       <c r="G63">
         <v>0</v>
       </c>
       <c r="H63">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63">
-        <v>0.1100208147487363</v>
+        <v>4.166666666666667</v>
       </c>
       <c r="J63">
-        <v>9.089189189189188</v>
+        <v>600</v>
       </c>
       <c r="K63" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L63">
         <v>1</v>
       </c>
       <c r="M63" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="N63">
-        <v>4050</v>
+        <v>2500</v>
       </c>
       <c r="O63">
         <v>0</v>
@@ -5328,60 +5319,60 @@
         <v>0</v>
       </c>
       <c r="U63" t="s">
+        <v>29</v>
+      </c>
+      <c r="V63" t="s">
         <v>158</v>
       </c>
-      <c r="V63" t="s">
-        <v>161</v>
-      </c>
       <c r="W63" t="s">
         <v>26</v>
       </c>
       <c r="X63" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
     <row r="64" spans="1:24">
       <c r="A64" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B64" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
         <v>106</v>
       </c>
       <c r="D64" s="2">
-        <v>45700.51666147858</v>
+        <v>45700.69944099092</v>
       </c>
       <c r="E64" s="2">
-        <v>45700.51666147858</v>
+        <v>45700.69944099092</v>
       </c>
       <c r="F64" s="2">
-        <v>45700.52582987981</v>
+        <v>45700.80707987981</v>
       </c>
       <c r="G64">
         <v>0</v>
       </c>
       <c r="H64">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64">
-        <v>0.2200416294974725</v>
+        <v>2.583333333333333</v>
       </c>
       <c r="J64">
-        <v>9.089189189189188</v>
+        <v>600</v>
       </c>
       <c r="K64" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="L64">
         <v>1</v>
       </c>
       <c r="M64" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="N64">
-        <v>4050</v>
+        <v>1550</v>
       </c>
       <c r="O64">
         <v>0</v>
@@ -5399,158 +5390,16 @@
         <v>0</v>
       </c>
       <c r="U64" t="s">
-        <v>159</v>
+        <v>29</v>
       </c>
       <c r="V64" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="W64" t="s">
         <v>26</v>
       </c>
       <c r="X64" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="65" spans="1:24">
-      <c r="A65" t="s">
-        <v>26</v>
-      </c>
-      <c r="B65" t="s">
-        <v>44</v>
-      </c>
-      <c r="C65" t="s">
-        <v>107</v>
-      </c>
-      <c r="D65" s="2">
-        <v>45700.52582987981</v>
-      </c>
-      <c r="E65" s="2">
-        <v>45700.52582987981</v>
-      </c>
-      <c r="F65" s="2">
-        <v>45700.69944099092</v>
-      </c>
-      <c r="G65">
-        <v>0</v>
-      </c>
-      <c r="H65">
-        <v>0</v>
-      </c>
-      <c r="I65">
-        <v>4.166666666666667</v>
-      </c>
-      <c r="J65">
-        <v>600</v>
-      </c>
-      <c r="K65" t="s">
-        <v>111</v>
-      </c>
-      <c r="L65">
-        <v>1</v>
-      </c>
-      <c r="M65" t="s">
-        <v>115</v>
-      </c>
-      <c r="N65">
-        <v>2500</v>
-      </c>
-      <c r="O65">
-        <v>0</v>
-      </c>
-      <c r="P65">
-        <v>0</v>
-      </c>
-      <c r="Q65">
-        <v>0</v>
-      </c>
-      <c r="R65">
-        <v>0</v>
-      </c>
-      <c r="S65">
-        <v>0</v>
-      </c>
-      <c r="U65" t="s">
-        <v>29</v>
-      </c>
-      <c r="V65" t="s">
-        <v>161</v>
-      </c>
-      <c r="W65" t="s">
-        <v>26</v>
-      </c>
-      <c r="X65" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="66" spans="1:24">
-      <c r="A66" t="s">
-        <v>26</v>
-      </c>
-      <c r="B66" t="s">
-        <v>44</v>
-      </c>
-      <c r="C66" t="s">
-        <v>108</v>
-      </c>
-      <c r="D66" s="2">
-        <v>45700.69944099092</v>
-      </c>
-      <c r="E66" s="2">
-        <v>45700.69944099092</v>
-      </c>
-      <c r="F66" s="2">
-        <v>45700.80707987981</v>
-      </c>
-      <c r="G66">
-        <v>0</v>
-      </c>
-      <c r="H66">
-        <v>0</v>
-      </c>
-      <c r="I66">
-        <v>2.583333333333333</v>
-      </c>
-      <c r="J66">
-        <v>600</v>
-      </c>
-      <c r="K66" t="s">
-        <v>111</v>
-      </c>
-      <c r="L66">
-        <v>1</v>
-      </c>
-      <c r="M66" t="s">
-        <v>116</v>
-      </c>
-      <c r="N66">
-        <v>1550</v>
-      </c>
-      <c r="O66">
-        <v>0</v>
-      </c>
-      <c r="P66">
-        <v>0</v>
-      </c>
-      <c r="Q66">
-        <v>0</v>
-      </c>
-      <c r="R66">
-        <v>0</v>
-      </c>
-      <c r="S66">
-        <v>0</v>
-      </c>
-      <c r="U66" t="s">
-        <v>29</v>
-      </c>
-      <c r="V66" t="s">
-        <v>161</v>
-      </c>
-      <c r="W66" t="s">
-        <v>26</v>
-      </c>
-      <c r="X66" t="s">
-        <v>163</v>
+        <v>160</v>
       </c>
     </row>
   </sheetData>
